--- a/images.xlsx
+++ b/images.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobfisher/projects/inprogress/mm_bilingualism/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Leah/Desktop/multitasking_bilingualism/github/mm_bilingualism/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0235F358-722A-A747-879A-0383C88BB8EF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0880DD89-2DD1-4448-8ADE-77BFAD7AE354}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="3840" windowWidth="16780" windowHeight="17440" xr2:uid="{830909D4-F99F-2A43-97B6-8A9DCCE8735C}"/>
+    <workbookView xWindow="1920" yWindow="460" windowWidth="20720" windowHeight="17440" xr2:uid="{830909D4-F99F-2A43-97B6-8A9DCCE8735C}"/>
   </bookViews>
   <sheets>
     <sheet name="images" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="485">
   <si>
     <t>images</t>
   </si>
@@ -38,88 +33,1453 @@
     <t>images/antelope.jpg</t>
   </si>
   <si>
-    <t>images/bagel01.jpg</t>
-  </si>
-  <si>
-    <t>images/apple01.jpg</t>
-  </si>
-  <si>
-    <t>images/barn.jpg</t>
-  </si>
-  <si>
-    <t>images/armadillo.jpg</t>
-  </si>
-  <si>
-    <t>images/avocado02.jpg</t>
-  </si>
-  <si>
     <t>images/banana04a.jpg</t>
   </si>
   <si>
-    <t>images/antlers.jpg</t>
-  </si>
-  <si>
     <t>images/banjo.jpg</t>
   </si>
   <si>
-    <t>images/bacon.jpg</t>
-  </si>
-  <si>
-    <t>images/acorn.jpg</t>
-  </si>
-  <si>
-    <t>images/almond.jpg</t>
-  </si>
-  <si>
-    <t>images/alligator.jpg</t>
-  </si>
-  <si>
     <t>corrAns</t>
   </si>
   <si>
     <t>antelope</t>
   </si>
   <si>
-    <t>bagel</t>
-  </si>
-  <si>
     <t>apple</t>
   </si>
   <si>
-    <t>shoe</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>z</t>
   </si>
   <si>
-    <t>armadillo</t>
-  </si>
-  <si>
-    <t>avocado</t>
-  </si>
-  <si>
     <t>banana</t>
   </si>
   <si>
-    <t>antlers</t>
-  </si>
-  <si>
     <t>banjo</t>
   </si>
   <si>
-    <t>bacon</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>deer</t>
-  </si>
-  <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>images/paintbrush03a.jpg</t>
+  </si>
+  <si>
+    <t>images/redfox.jpg</t>
+  </si>
+  <si>
+    <t>images/volleyball.jpg</t>
+  </si>
+  <si>
+    <t>images/plate01b.jpg</t>
+  </si>
+  <si>
+    <t>images/puma.jpg</t>
+  </si>
+  <si>
+    <t>images/lantern03.jpg</t>
+  </si>
+  <si>
+    <t>images/daisy.jpg</t>
+  </si>
+  <si>
+    <t>images/notebook02b.jpg</t>
+  </si>
+  <si>
+    <t>images/flashlight05.jpg</t>
+  </si>
+  <si>
+    <t>images/barrel01.jpg</t>
+  </si>
+  <si>
+    <t>images/pingpongpaddle01c (1).jpg</t>
+  </si>
+  <si>
+    <t>images/tent.jpg</t>
+  </si>
+  <si>
+    <t>images/apple06.jpg</t>
+  </si>
+  <si>
+    <t>images/lemon02.jpg</t>
+  </si>
+  <si>
+    <t>images/hat05.jpg</t>
+  </si>
+  <si>
+    <t>images/desktopcomputer.jpg</t>
+  </si>
+  <si>
+    <t>images/sunglasses03a.jpg</t>
+  </si>
+  <si>
+    <t>images/dryingmachine01.jpg</t>
+  </si>
+  <si>
+    <t>images/egg01b (1).jpg</t>
+  </si>
+  <si>
+    <t>images/bowlingball.jpg</t>
+  </si>
+  <si>
+    <t>images/gps.jpg</t>
+  </si>
+  <si>
+    <t>images/corn01.jpg</t>
+  </si>
+  <si>
+    <t>images/cake.jpg</t>
+  </si>
+  <si>
+    <t>images/bowl02b (1).jpg</t>
+  </si>
+  <si>
+    <t>images/pouch01b.jpg</t>
+  </si>
+  <si>
+    <t>images/floorlamp.jpg</t>
+  </si>
+  <si>
+    <t>images/flipflop01b.jpg</t>
+  </si>
+  <si>
+    <t>images/hairpin.jpg</t>
+  </si>
+  <si>
+    <t>images/dragonfly02.jpg</t>
+  </si>
+  <si>
+    <t>images/cocktailshrimp01.jpg</t>
+  </si>
+  <si>
+    <t>images/candy.jpg</t>
+  </si>
+  <si>
+    <t>images/apricot.jpg</t>
+  </si>
+  <si>
+    <t>images/basketball01.jpg</t>
+  </si>
+  <si>
+    <t>images/battery03b.jpg</t>
+  </si>
+  <si>
+    <t>images/graduationcap.jpg</t>
+  </si>
+  <si>
+    <t>images/razor04a.jpg</t>
+  </si>
+  <si>
+    <t>images/radio03a.jpg</t>
+  </si>
+  <si>
+    <t>images/spoon02b.jpg</t>
+  </si>
+  <si>
+    <t>images/croissant02b.jpg</t>
+  </si>
+  <si>
+    <t>images/licenseplate.jpg</t>
+  </si>
+  <si>
+    <t>images/pictureframe04.jpg</t>
+  </si>
+  <si>
+    <t>images/lollipop03b.jpg</t>
+  </si>
+  <si>
+    <t>images/ashtray02b.jpg</t>
+  </si>
+  <si>
+    <t>images/lion.jpg</t>
+  </si>
+  <si>
+    <t>images/fryingpan01.jpg</t>
+  </si>
+  <si>
+    <t>images/blueberry02.jpg</t>
+  </si>
+  <si>
+    <t>images/plant01.jpg</t>
+  </si>
+  <si>
+    <t>images/dreamcatcher.jpg</t>
+  </si>
+  <si>
+    <t>images/table02.jpg</t>
+  </si>
+  <si>
+    <t>images/seagull.jpg</t>
+  </si>
+  <si>
+    <t>images/pineapple01a.jpg</t>
+  </si>
+  <si>
+    <t>images/flamingo.jpg</t>
+  </si>
+  <si>
+    <t>images/umbrella01.jpg</t>
+  </si>
+  <si>
+    <t>images/swan.jpg</t>
+  </si>
+  <si>
+    <t>images/birthdaycandle.jpg</t>
+  </si>
+  <si>
+    <t>images/lipstick04.jpg</t>
+  </si>
+  <si>
+    <t>images/puzzle.jpg</t>
+  </si>
+  <si>
+    <t>images/tissuebox03.jpg</t>
+  </si>
+  <si>
+    <t>images/honeycomb.jpg</t>
+  </si>
+  <si>
+    <t>images/thumbtack02a.jpg</t>
+  </si>
+  <si>
+    <t>images/computerkeyboard01a.jpg</t>
+  </si>
+  <si>
+    <t>images/lychee02a.jpg</t>
+  </si>
+  <si>
+    <t>images/saltshaker03c.jpg</t>
+  </si>
+  <si>
+    <t>images/magnifyingglass01b.jpg</t>
+  </si>
+  <si>
+    <t>images/lock02a.jpg</t>
+  </si>
+  <si>
+    <t>images/hairband.jpg</t>
+  </si>
+  <si>
+    <t>images/weight01.jpg</t>
+  </si>
+  <si>
+    <t>images/leaf01a.jpg</t>
+  </si>
+  <si>
+    <t>images/handfan01b.jpg</t>
+  </si>
+  <si>
+    <t>images/cactus.jpg</t>
+  </si>
+  <si>
+    <t>images/parkbench03.jpg</t>
+  </si>
+  <si>
+    <t>images/printer03a.jpg</t>
+  </si>
+  <si>
+    <t>images/mailbox01.jpg</t>
+  </si>
+  <si>
+    <t>images/baseball01a.jpg</t>
+  </si>
+  <si>
+    <t>images/highheelshoe02a.jpg</t>
+  </si>
+  <si>
+    <t>images/ostrich.jpg</t>
+  </si>
+  <si>
+    <t>images/charcoalbarbecue.jpg</t>
+  </si>
+  <si>
+    <t>images/safe.jpg</t>
+  </si>
+  <si>
+    <t>images/clothespin02a.jpg</t>
+  </si>
+  <si>
+    <t>images/gorilla.jpg</t>
+  </si>
+  <si>
+    <t>images/toucan.jpg</t>
+  </si>
+  <si>
+    <t>images/cheetah.jpg</t>
+  </si>
+  <si>
+    <t>images/panda.jpg</t>
+  </si>
+  <si>
+    <t>images/screw03c.jpg</t>
+  </si>
+  <si>
+    <t>images/remotecontrol01c.jpg</t>
+  </si>
+  <si>
+    <t>images/shotglass.jpg</t>
+  </si>
+  <si>
+    <t>images/dresser02.jpg</t>
+  </si>
+  <si>
+    <t>images/hanger02a.jpg</t>
+  </si>
+  <si>
+    <t>images/bowtie.jpg</t>
+  </si>
+  <si>
+    <t>images/sock03.jpg</t>
+  </si>
+  <si>
+    <t>images/butterfly.jpg</t>
+  </si>
+  <si>
+    <t>images/beachumbrella01.jpg</t>
+  </si>
+  <si>
+    <t>images/parkfountain.jpg</t>
+  </si>
+  <si>
+    <t>images/nailpolish02b.jpg</t>
+  </si>
+  <si>
+    <t>images/marker01a.jpg</t>
+  </si>
+  <si>
+    <t>images/atm.jpg</t>
+  </si>
+  <si>
+    <t>images/acousticguitar02.jpg</t>
+  </si>
+  <si>
+    <t>images/ant.jpg</t>
+  </si>
+  <si>
+    <t>images/dolphin01.jpg</t>
+  </si>
+  <si>
+    <t>images/electricguitar02.jpg</t>
+  </si>
+  <si>
+    <t>images/headphones02b.jpg</t>
+  </si>
+  <si>
+    <t>images/mitten01.jpg</t>
+  </si>
+  <si>
+    <t>images/bed.jpg</t>
+  </si>
+  <si>
+    <t>images/axe01.jpg</t>
+  </si>
+  <si>
+    <t>images/elbow.jpg</t>
+  </si>
+  <si>
+    <t>images/peach01.jpg</t>
+  </si>
+  <si>
+    <t>images/coffeepot03b.jpg</t>
+  </si>
+  <si>
+    <t>images/nametag01a.jpg</t>
+  </si>
+  <si>
+    <t>images/straw.jpg</t>
+  </si>
+  <si>
+    <t>images/eraser.jpg</t>
+  </si>
+  <si>
+    <t>images/beermug01b.jpg</t>
+  </si>
+  <si>
+    <t>images/gamecontroller01.jpg</t>
+  </si>
+  <si>
+    <t>images/ladder.jpg</t>
+  </si>
+  <si>
+    <t>images/feather03b.jpg</t>
+  </si>
+  <si>
+    <t>images/medal01.jpg</t>
+  </si>
+  <si>
+    <t>images/broom02.jpg</t>
+  </si>
+  <si>
+    <t>images/drink.jpg</t>
+  </si>
+  <si>
+    <t>images/hairdryer03a.jpg</t>
+  </si>
+  <si>
+    <t>images/chameleon.jpg</t>
+  </si>
+  <si>
+    <t>images/mirror02.jpg</t>
+  </si>
+  <si>
+    <t>images/icecube02 (2).jpg</t>
+  </si>
+  <si>
+    <t>images/nailclipper03a.jpg</t>
+  </si>
+  <si>
+    <t>images/coin01b.jpg</t>
+  </si>
+  <si>
+    <t>images/kiwi03.jpg</t>
+  </si>
+  <si>
+    <t>images/dice05a.jpg</t>
+  </si>
+  <si>
+    <t>images/electrictoothbrush01a.jpg</t>
+  </si>
+  <si>
+    <t>images/orange.jpg</t>
+  </si>
+  <si>
+    <t>images/cockroach02.jpg</t>
+  </si>
+  <si>
+    <t>images/tie01.jpg</t>
+  </si>
+  <si>
+    <t>images/eyedrops.jpg</t>
+  </si>
+  <si>
+    <t>images/squirrel.jpg</t>
+  </si>
+  <si>
+    <t>images/cat.jpg</t>
+  </si>
+  <si>
+    <t>images/triangleruler02.jpg</t>
+  </si>
+  <si>
+    <t>images/boxingglove02a.jpg</t>
+  </si>
+  <si>
+    <t>images/lip.jpg</t>
+  </si>
+  <si>
+    <t>images/aloe02.jpg</t>
+  </si>
+  <si>
+    <t>images/camera01a.jpg</t>
+  </si>
+  <si>
+    <t>images/ear.jpg</t>
+  </si>
+  <si>
+    <t>images/flower01.jpg</t>
+  </si>
+  <si>
+    <t>images/bull.jpg</t>
+  </si>
+  <si>
+    <t>images/glasses01b.jpg</t>
+  </si>
+  <si>
+    <t>images/diaper01a.jpg</t>
+  </si>
+  <si>
+    <t>images/handbag02a.jpg</t>
+  </si>
+  <si>
+    <t>images/stapler03a.jpg</t>
+  </si>
+  <si>
+    <t>images/doll.jpg</t>
+  </si>
+  <si>
+    <t>images/mattress.jpg</t>
+  </si>
+  <si>
+    <t>images/grasshopper.jpg</t>
+  </si>
+  <si>
+    <t>images/cloud.jpg</t>
+  </si>
+  <si>
+    <t>images/parrot01.jpg</t>
+  </si>
+  <si>
+    <t>images/50dollarbill.jpg</t>
+  </si>
+  <si>
+    <t>images/bracelet02a.jpg</t>
+  </si>
+  <si>
+    <t>images/key03b.jpg</t>
+  </si>
+  <si>
+    <t>images/globe.jpg</t>
+  </si>
+  <si>
+    <t>images/chessknight02b (1).jpg</t>
+  </si>
+  <si>
+    <t>images/highlighter03b.jpg</t>
+  </si>
+  <si>
+    <t>images/cola.jpg</t>
+  </si>
+  <si>
+    <t>images/screwdriver02b.jpg</t>
+  </si>
+  <si>
+    <t>images/aquarium.jpg</t>
+  </si>
+  <si>
+    <t>images/fork01.jpg</t>
+  </si>
+  <si>
+    <t>images/carrot02.jpg</t>
+  </si>
+  <si>
+    <t>images/cigar.jpg</t>
+  </si>
+  <si>
+    <t>images/hand01a.jpg</t>
+  </si>
+  <si>
+    <t>images/microphone01.jpg</t>
+  </si>
+  <si>
+    <t>images/calculator02b.jpg</t>
+  </si>
+  <si>
+    <t>images/comb02a.jpg</t>
+  </si>
+  <si>
+    <t>images/binder03b.jpg</t>
+  </si>
+  <si>
+    <t>images/doorhandle.jpg</t>
+  </si>
+  <si>
+    <t>images/leek.jpg</t>
+  </si>
+  <si>
+    <t>images/bandaid01.jpg</t>
+  </si>
+  <si>
+    <t>images/parkingmeter.jpg</t>
+  </si>
+  <si>
+    <t>images/bench02.jpg</t>
+  </si>
+  <si>
+    <t>images/rhinoceros01.jpg</t>
+  </si>
+  <si>
+    <t>images/paperclip04.jpg</t>
+  </si>
+  <si>
+    <t>images/fireextinguisher02.jpg</t>
+  </si>
+  <si>
+    <t>images/hammer02a.jpg</t>
+  </si>
+  <si>
+    <t>images/lightswitch02a.jpg</t>
+  </si>
+  <si>
+    <t>images/ladybug03.jpg</t>
+  </si>
+  <si>
+    <t>images/diploma01.jpg</t>
+  </si>
+  <si>
+    <t>images/snowman.jpg</t>
+  </si>
+  <si>
+    <t>images/cauliflower01.jpg</t>
+  </si>
+  <si>
+    <t>images/envelope02a.jpg</t>
+  </si>
+  <si>
+    <t>images/cookingpot.jpg</t>
+  </si>
+  <si>
+    <t>images/arrow02.jpg</t>
+  </si>
+  <si>
+    <t>images/bat.jpg</t>
+  </si>
+  <si>
+    <t>images/bicycle.jpg</t>
+  </si>
+  <si>
+    <t>images/cherry01.jpg</t>
+  </si>
+  <si>
+    <t>images/pipe.jpg</t>
+  </si>
+  <si>
+    <t>images/skateboard.jpg</t>
+  </si>
+  <si>
+    <t>images/lily.jpg</t>
+  </si>
+  <si>
+    <t>images/rubberglove02a.jpg</t>
+  </si>
+  <si>
+    <t>images/wallet01.jpg</t>
+  </si>
+  <si>
+    <t>images/scissors04a.jpg</t>
+  </si>
+  <si>
+    <t>images/giraffe.jpg</t>
+  </si>
+  <si>
+    <t>images/djmixer01.jpg</t>
+  </si>
+  <si>
+    <t>images/teapot.jpg</t>
+  </si>
+  <si>
+    <t>images/pepper05a.jpg</t>
+  </si>
+  <si>
+    <t>images/treadmill.jpg</t>
+  </si>
+  <si>
+    <t>images/candycane01a.jpg</t>
+  </si>
+  <si>
+    <t>images/corkscrew02a.jpg</t>
+  </si>
+  <si>
+    <t>images/swallow.jpg</t>
+  </si>
+  <si>
+    <t>images/bus.jpg</t>
+  </si>
+  <si>
+    <t>images/masquerademask02b.jpg</t>
+  </si>
+  <si>
+    <t>images/lettuce.jpg</t>
+  </si>
+  <si>
+    <t>images/8ball.jpg</t>
+  </si>
+  <si>
+    <t>images/watermelon01.jpg</t>
+  </si>
+  <si>
+    <t>images/ceilingfan02.jpg</t>
+  </si>
+  <si>
+    <t>images/lamp04b.jpg</t>
+  </si>
+  <si>
+    <t>images/toothbrush03a.jpg</t>
+  </si>
+  <si>
+    <t>images/pen03c.jpg</t>
+  </si>
+  <si>
+    <t>images/scooter.jpg</t>
+  </si>
+  <si>
+    <t>images/bottleofredwine02.jpg</t>
+  </si>
+  <si>
+    <t>images/radish01.jpg</t>
+  </si>
+  <si>
+    <t>images/button07.jpg</t>
+  </si>
+  <si>
+    <t>images/donut.jpg</t>
+  </si>
+  <si>
+    <t>images/bullet (2).jpg</t>
+  </si>
+  <si>
+    <t>images/raisin.jpg</t>
+  </si>
+  <si>
+    <t>images/cupcake.jpg</t>
+  </si>
+  <si>
+    <t>images/worldmap.jpg</t>
+  </si>
+  <si>
+    <t>images/candle08a.jpg</t>
+  </si>
+  <si>
+    <t>images/mushroom01.jpg</t>
+  </si>
+  <si>
+    <t>images/showerhead01.jpg</t>
+  </si>
+  <si>
+    <t>images/belt02a.jpg</t>
+  </si>
+  <si>
+    <t>images/tulip02.jpg</t>
+  </si>
+  <si>
+    <t>images/gluestick.jpg</t>
+  </si>
+  <si>
+    <t>images/lighter02b.jpg</t>
+  </si>
+  <si>
+    <t>images/backpack01b.jpg</t>
+  </si>
+  <si>
+    <t>images/blackolive.jpg</t>
+  </si>
+  <si>
+    <t>images/sportshorts02.jpg</t>
+  </si>
+  <si>
+    <t>images/broadsword.jpg</t>
+  </si>
+  <si>
+    <t>images/tape01a.jpg</t>
+  </si>
+  <si>
+    <t>images/knife04.jpg</t>
+  </si>
+  <si>
+    <t>images/lightbulb03b.jpg</t>
+  </si>
+  <si>
+    <t>images/crocodile.jpg</t>
+  </si>
+  <si>
+    <t>images/grandpiano.jpg</t>
+  </si>
+  <si>
+    <t>images/tank.jpg</t>
+  </si>
+  <si>
+    <t>images/ruler02b.jpg</t>
+  </si>
+  <si>
+    <t>images/computermouse02a.jpg</t>
+  </si>
+  <si>
+    <t>puma</t>
+  </si>
+  <si>
+    <t>daisy</t>
+  </si>
+  <si>
+    <t>tent</t>
+  </si>
+  <si>
+    <t>gps</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>apricot</t>
+  </si>
+  <si>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>seagull</t>
+  </si>
+  <si>
+    <t>flamingo</t>
+  </si>
+  <si>
+    <t>swan</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>hairband</t>
+  </si>
+  <si>
+    <t>cactus</t>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>gorilla</t>
+  </si>
+  <si>
+    <t>toucan</t>
+  </si>
+  <si>
+    <t>cheetah</t>
+  </si>
+  <si>
+    <t>panda</t>
+  </si>
+  <si>
+    <t>bowtie</t>
+  </si>
+  <si>
+    <t>butterfly</t>
+  </si>
+  <si>
+    <t>atm</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>bed</t>
+  </si>
+  <si>
+    <t>elbow</t>
+  </si>
+  <si>
+    <t>straw</t>
+  </si>
+  <si>
+    <t>eraser</t>
+  </si>
+  <si>
+    <t>ladder</t>
+  </si>
+  <si>
+    <t>drink</t>
+  </si>
+  <si>
+    <t>chameleon</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>squirrel</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>lip</t>
+  </si>
+  <si>
+    <t>ear</t>
+  </si>
+  <si>
+    <t>bull</t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>mattress</t>
+  </si>
+  <si>
+    <t>grasshopper</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>globe</t>
+  </si>
+  <si>
+    <t>cola</t>
+  </si>
+  <si>
+    <t>aquarium</t>
+  </si>
+  <si>
+    <t>cigar</t>
+  </si>
+  <si>
+    <t>leek</t>
+  </si>
+  <si>
+    <t>snowman</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>pipe</t>
+  </si>
+  <si>
+    <t>skateboard</t>
+  </si>
+  <si>
+    <t>lily</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>teapot</t>
+  </si>
+  <si>
+    <t>treadmill</t>
+  </si>
+  <si>
+    <t>swallow</t>
+  </si>
+  <si>
+    <t>bus</t>
+  </si>
+  <si>
+    <t>lettuce</t>
+  </si>
+  <si>
+    <t>scooter</t>
+  </si>
+  <si>
+    <t>donut</t>
+  </si>
+  <si>
+    <t>raisin</t>
+  </si>
+  <si>
+    <t>cupcake</t>
+  </si>
+  <si>
+    <t>crocodile</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>paint brush</t>
+  </si>
+  <si>
+    <t>red fox</t>
+  </si>
+  <si>
+    <t>volley ball</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>lantern</t>
+  </si>
+  <si>
+    <t>notebook</t>
+  </si>
+  <si>
+    <t>flash light</t>
+  </si>
+  <si>
+    <t>barrel</t>
+  </si>
+  <si>
+    <t>ping pong paddle</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>hat</t>
+  </si>
+  <si>
+    <t>desktop computer</t>
+  </si>
+  <si>
+    <t>sun glasses</t>
+  </si>
+  <si>
+    <t>drying machine</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>bowling ball</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>pouch</t>
+  </si>
+  <si>
+    <t>floor lamp</t>
+  </si>
+  <si>
+    <t>hair pin</t>
+  </si>
+  <si>
+    <t>flip flop</t>
+  </si>
+  <si>
+    <t>dragon fly</t>
+  </si>
+  <si>
+    <t>cocktail shrimp</t>
+  </si>
+  <si>
+    <t>basket ball</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>graduation cap</t>
+  </si>
+  <si>
+    <t>razor</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>croissant</t>
+  </si>
+  <si>
+    <t>license plate</t>
+  </si>
+  <si>
+    <t>picture frame</t>
+  </si>
+  <si>
+    <t>lollipop</t>
+  </si>
+  <si>
+    <t>ashtray</t>
+  </si>
+  <si>
+    <t>frying pan</t>
+  </si>
+  <si>
+    <t>blueberry</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>dream catcher</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>pineapple</t>
+  </si>
+  <si>
+    <t>umbrella</t>
+  </si>
+  <si>
+    <t>birthday candle</t>
+  </si>
+  <si>
+    <t>lipstick</t>
+  </si>
+  <si>
+    <t>honey comb</t>
+  </si>
+  <si>
+    <t>tissue box</t>
+  </si>
+  <si>
+    <t>thumb tack</t>
+  </si>
+  <si>
+    <t>computer keyboard</t>
+  </si>
+  <si>
+    <t>lychee</t>
+  </si>
+  <si>
+    <t>salt shaker</t>
+  </si>
+  <si>
+    <t>magnifying glass</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>handfan</t>
+  </si>
+  <si>
+    <t>park bench</t>
+  </si>
+  <si>
+    <t>printer</t>
+  </si>
+  <si>
+    <t>mail box</t>
+  </si>
+  <si>
+    <t>baseball</t>
+  </si>
+  <si>
+    <t>high heel shoe</t>
+  </si>
+  <si>
+    <t>charcoal barbecue</t>
+  </si>
+  <si>
+    <t>clothes pin</t>
+  </si>
+  <si>
+    <t>screw</t>
+  </si>
+  <si>
+    <t>remote control</t>
+  </si>
+  <si>
+    <t>shot glass</t>
+  </si>
+  <si>
+    <t>dresser</t>
+  </si>
+  <si>
+    <t>hanger</t>
+  </si>
+  <si>
+    <t>sock</t>
+  </si>
+  <si>
+    <t>beach umbrella</t>
+  </si>
+  <si>
+    <t>park fountain</t>
+  </si>
+  <si>
+    <t>nail polish</t>
+  </si>
+  <si>
+    <t>marker</t>
+  </si>
+  <si>
+    <t>acoustic guitar</t>
+  </si>
+  <si>
+    <t>dolphin</t>
+  </si>
+  <si>
+    <t>electric guitar</t>
+  </si>
+  <si>
+    <t>headphones</t>
+  </si>
+  <si>
+    <t>mitten</t>
+  </si>
+  <si>
+    <t>axe</t>
+  </si>
+  <si>
+    <t>peach</t>
+  </si>
+  <si>
+    <t>coffee pot</t>
+  </si>
+  <si>
+    <t>name tag</t>
+  </si>
+  <si>
+    <t>beer mug</t>
+  </si>
+  <si>
+    <t>game controller</t>
+  </si>
+  <si>
+    <t>feather</t>
+  </si>
+  <si>
+    <t>medal</t>
+  </si>
+  <si>
+    <t>broom</t>
+  </si>
+  <si>
+    <t>hairdryer</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>icecube</t>
+  </si>
+  <si>
+    <t>nail clipper</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>kiwi</t>
+  </si>
+  <si>
+    <t>electric toothbrush</t>
+  </si>
+  <si>
+    <t>dice</t>
+  </si>
+  <si>
+    <t>cockroach</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>eye drops</t>
+  </si>
+  <si>
+    <t>triangle ruler</t>
+  </si>
+  <si>
+    <t>boxing glove</t>
+  </si>
+  <si>
+    <t>aloe</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>glasses</t>
+  </si>
+  <si>
+    <t>diaper</t>
+  </si>
+  <si>
+    <t>hand bag</t>
+  </si>
+  <si>
+    <t>stapler</t>
+  </si>
+  <si>
+    <t>parrot</t>
+  </si>
+  <si>
+    <t>50 dollar bill</t>
+  </si>
+  <si>
+    <t>bracelet</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>chess knight</t>
+  </si>
+  <si>
+    <t>highlighter</t>
+  </si>
+  <si>
+    <t>screw driver</t>
+  </si>
+  <si>
+    <t>fork</t>
+  </si>
+  <si>
+    <t>carrot</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>microphone</t>
+  </si>
+  <si>
+    <t>calculator</t>
+  </si>
+  <si>
+    <t>comb</t>
+  </si>
+  <si>
+    <t>binder</t>
+  </si>
+  <si>
+    <t>door handle</t>
+  </si>
+  <si>
+    <t>band aid</t>
+  </si>
+  <si>
+    <t>parking meter</t>
+  </si>
+  <si>
+    <t>bench</t>
+  </si>
+  <si>
+    <t>rhinoceros</t>
+  </si>
+  <si>
+    <t>paper clip</t>
+  </si>
+  <si>
+    <t>fire extinguisher</t>
+  </si>
+  <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>light switch</t>
+  </si>
+  <si>
+    <t>lady bug</t>
+  </si>
+  <si>
+    <t>diploma</t>
+  </si>
+  <si>
+    <t>cauliflower</t>
+  </si>
+  <si>
+    <t>envelope</t>
+  </si>
+  <si>
+    <t>cooking pot</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>cherry</t>
+  </si>
+  <si>
+    <t>rubber glove</t>
+  </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t>scissors</t>
+  </si>
+  <si>
+    <t>dj mixer</t>
+  </si>
+  <si>
+    <t>pepper</t>
+  </si>
+  <si>
+    <t>candy cane</t>
+  </si>
+  <si>
+    <t>corkscrew</t>
+  </si>
+  <si>
+    <t>masquerade mask</t>
+  </si>
+  <si>
+    <t>8 ball</t>
+  </si>
+  <si>
+    <t>watermelon</t>
+  </si>
+  <si>
+    <t>ceiling fan</t>
+  </si>
+  <si>
+    <t>lamp</t>
+  </si>
+  <si>
+    <t>tooth brush</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>bottle of red wine</t>
+  </si>
+  <si>
+    <t>radish</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>bullet</t>
+  </si>
+  <si>
+    <t>world map</t>
+  </si>
+  <si>
+    <t>candle</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>shower head</t>
+  </si>
+  <si>
+    <t>belt</t>
+  </si>
+  <si>
+    <t>tulip</t>
+  </si>
+  <si>
+    <t>glue stick</t>
+  </si>
+  <si>
+    <t>lighter</t>
+  </si>
+  <si>
+    <t>backpack</t>
+  </si>
+  <si>
+    <t>black olive</t>
+  </si>
+  <si>
+    <t>sport shorts</t>
+  </si>
+  <si>
+    <t>broad sword</t>
+  </si>
+  <si>
+    <t>tape</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>light bulb</t>
+  </si>
+  <si>
+    <t>grand piano</t>
+  </si>
+  <si>
+    <t>ruler</t>
+  </si>
+  <si>
+    <t>computer mouse</t>
   </si>
 </sst>
 </file>
@@ -471,15 +1831,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839C35BA-326A-F54D-A817-4F72A4E1ED8B}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A224" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -487,156 +1848,2656 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>317</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>250</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>318</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>319</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>321</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
-        <v>19</v>
+      <c r="B19" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>328</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>335</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>336</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>342</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>343</v>
+      </c>
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" t="s">
+        <v>344</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>345</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>346</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" t="s">
+        <v>347</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" t="s">
+        <v>348</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>349</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>351</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>352</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>353</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" t="s">
+        <v>354</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>355</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" t="s">
+        <v>358</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" t="s">
+        <v>359</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>360</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" t="s">
+        <v>361</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" t="s">
+        <v>362</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>363</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" t="s">
+        <v>364</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" t="s">
+        <v>365</v>
+      </c>
+      <c r="C69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" t="s">
+        <v>366</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>367</v>
+      </c>
+      <c r="C71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B73" t="s">
+        <v>368</v>
+      </c>
+      <c r="C73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B74" t="s">
+        <v>369</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" t="s">
+        <v>370</v>
+      </c>
+      <c r="C75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" t="s">
+        <v>372</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" t="s">
+        <v>373</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" t="s">
+        <v>374</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>265</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>266</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="s">
+        <v>267</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>375</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" t="s">
+        <v>376</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>377</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>378</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" t="s">
+        <v>379</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>102</v>
+      </c>
+      <c r="B93" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" t="s">
+        <v>381</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" t="s">
+        <v>382</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>383</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B98" t="s">
+        <v>271</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B99" t="s">
+        <v>385</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B101" t="s">
+        <v>386</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>111</v>
+      </c>
+      <c r="B102" t="s">
+        <v>387</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>112</v>
+      </c>
+      <c r="B103" t="s">
+        <v>388</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>113</v>
+      </c>
+      <c r="B104" t="s">
+        <v>389</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>115</v>
+      </c>
+      <c r="B106" t="s">
+        <v>390</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" t="s">
+        <v>274</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>117</v>
+      </c>
+      <c r="B108" t="s">
+        <v>391</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B109" t="s">
+        <v>392</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>119</v>
+      </c>
+      <c r="B110" t="s">
+        <v>393</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>120</v>
+      </c>
+      <c r="B111" t="s">
+        <v>275</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" t="s">
+        <v>276</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>122</v>
+      </c>
+      <c r="B113" t="s">
+        <v>394</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>123</v>
+      </c>
+      <c r="B114" t="s">
+        <v>395</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>124</v>
+      </c>
+      <c r="B115" t="s">
+        <v>277</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>396</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" t="s">
+        <v>397</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" t="s">
+        <v>398</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" t="s">
+        <v>278</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" t="s">
+        <v>399</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" t="s">
+        <v>420</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" t="s">
+        <v>457</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>132</v>
+      </c>
+      <c r="B124" t="s">
+        <v>412</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" t="s">
+        <v>292</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" t="s">
+        <v>447</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" t="s">
+        <v>475</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" t="s">
+        <v>434</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" t="s">
+        <v>296</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" t="s">
+        <v>471</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B132" t="s">
+        <v>436</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" t="s">
+        <v>297</v>
+      </c>
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>142</v>
+      </c>
+      <c r="B134" t="s">
+        <v>432</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" t="s">
+        <v>476</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136" t="s">
+        <v>463</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137" t="s">
+        <v>421</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138" t="s">
+        <v>411</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" t="s">
+        <v>478</v>
+      </c>
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>148</v>
+      </c>
+      <c r="B140" t="s">
+        <v>285</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" t="s">
+        <v>466</v>
+      </c>
+      <c r="C141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>150</v>
+      </c>
+      <c r="B142" t="s">
+        <v>305</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143" t="s">
+        <v>465</v>
+      </c>
+      <c r="C143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>152</v>
+      </c>
+      <c r="B144" t="s">
+        <v>430</v>
+      </c>
+      <c r="C144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" t="s">
+        <v>413</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>154</v>
+      </c>
+      <c r="B146" t="s">
+        <v>468</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" t="s">
+        <v>454</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>156</v>
+      </c>
+      <c r="B148" t="s">
+        <v>427</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" t="s">
+        <v>282</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" t="s">
+        <v>444</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" t="s">
+        <v>459</v>
+      </c>
+      <c r="C151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>160</v>
+      </c>
+      <c r="B152" t="s">
+        <v>279</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" t="s">
+        <v>448</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" t="s">
+        <v>423</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155" t="s">
+        <v>293</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" t="s">
+        <v>289</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" t="s">
+        <v>407</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>166</v>
+      </c>
+      <c r="B158" t="s">
+        <v>403</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>167</v>
+      </c>
+      <c r="B159" t="s">
+        <v>431</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160" t="s">
+        <v>291</v>
+      </c>
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161" t="s">
+        <v>484</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>170</v>
+      </c>
+      <c r="B162" t="s">
+        <v>446</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>171</v>
+      </c>
+      <c r="B163" t="s">
+        <v>455</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>172</v>
+      </c>
+      <c r="B164" t="s">
+        <v>311</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165" t="s">
+        <v>310</v>
+      </c>
+      <c r="C165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>174</v>
+      </c>
+      <c r="B166" t="s">
+        <v>416</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167" t="s">
+        <v>406</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>176</v>
+      </c>
+      <c r="B168" t="s">
+        <v>443</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" t="s">
+        <v>452</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170" t="s">
+        <v>286</v>
+      </c>
+      <c r="C170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171" t="s">
+        <v>308</v>
+      </c>
+      <c r="C171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>180</v>
+      </c>
+      <c r="B172" t="s">
+        <v>433</v>
+      </c>
+      <c r="C172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173" t="s">
+        <v>284</v>
+      </c>
+      <c r="C173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>182</v>
+      </c>
+      <c r="B174" t="s">
+        <v>405</v>
+      </c>
+      <c r="C174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175" t="s">
+        <v>445</v>
+      </c>
+      <c r="C175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>184</v>
+      </c>
+      <c r="B176" t="s">
+        <v>409</v>
+      </c>
+      <c r="C176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>185</v>
+      </c>
+      <c r="B177" t="s">
+        <v>439</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>186</v>
+      </c>
+      <c r="B178" t="s">
+        <v>414</v>
+      </c>
+      <c r="C178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179" t="s">
+        <v>426</v>
+      </c>
+      <c r="C179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>188</v>
+      </c>
+      <c r="B180" t="s">
+        <v>301</v>
+      </c>
+      <c r="C180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181" t="s">
+        <v>415</v>
+      </c>
+      <c r="C181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>190</v>
+      </c>
+      <c r="B182" t="s">
+        <v>290</v>
+      </c>
+      <c r="C182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>191</v>
+      </c>
+      <c r="B183" t="s">
+        <v>473</v>
+      </c>
+      <c r="C183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>192</v>
+      </c>
+      <c r="B184" t="s">
+        <v>482</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185" t="s">
+        <v>288</v>
+      </c>
+      <c r="C185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>194</v>
+      </c>
+      <c r="B186" t="s">
+        <v>440</v>
+      </c>
+      <c r="C186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>195</v>
+      </c>
+      <c r="B187" t="s">
+        <v>428</v>
+      </c>
+      <c r="C187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>196</v>
+      </c>
+      <c r="B188" t="s">
+        <v>417</v>
+      </c>
+      <c r="C188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>197</v>
+      </c>
+      <c r="B189" t="s">
+        <v>424</v>
+      </c>
+      <c r="C189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>198</v>
+      </c>
+      <c r="B190" t="s">
+        <v>401</v>
+      </c>
+      <c r="C190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>199</v>
+      </c>
+      <c r="B191" t="s">
+        <v>422</v>
+      </c>
+      <c r="C191" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>200</v>
+      </c>
+      <c r="B192" t="s">
+        <v>404</v>
+      </c>
+      <c r="C192" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>3</v>
+      </c>
+      <c r="B193" t="s">
+        <v>480</v>
+      </c>
+      <c r="C193" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>201</v>
+      </c>
+      <c r="B194" t="s">
+        <v>442</v>
+      </c>
+      <c r="C194" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>202</v>
+      </c>
+      <c r="B195" t="s">
+        <v>460</v>
+      </c>
+      <c r="C195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>203</v>
+      </c>
+      <c r="B196" t="s">
+        <v>294</v>
+      </c>
+      <c r="C196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>204</v>
+      </c>
+      <c r="B197" t="s">
+        <v>306</v>
+      </c>
+      <c r="C197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>205</v>
+      </c>
+      <c r="B198" t="s">
+        <v>481</v>
+      </c>
+      <c r="C198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>206</v>
+      </c>
+      <c r="B199" t="s">
+        <v>441</v>
+      </c>
+      <c r="C199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>207</v>
+      </c>
+      <c r="B200" t="s">
+        <v>474</v>
+      </c>
+      <c r="C200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>208</v>
+      </c>
+      <c r="B201" t="s">
+        <v>300</v>
+      </c>
+      <c r="C201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>209</v>
+      </c>
+      <c r="B202" t="s">
+        <v>283</v>
+      </c>
+      <c r="C202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>210</v>
+      </c>
+      <c r="B203" t="s">
+        <v>456</v>
+      </c>
+      <c r="C203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>211</v>
+      </c>
+      <c r="B204" t="s">
+        <v>287</v>
+      </c>
+      <c r="C204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>212</v>
+      </c>
+      <c r="B205" t="s">
+        <v>429</v>
+      </c>
+      <c r="C205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>213</v>
+      </c>
+      <c r="B206" t="s">
+        <v>400</v>
+      </c>
+      <c r="C206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>214</v>
+      </c>
+      <c r="B207" t="s">
+        <v>469</v>
+      </c>
+      <c r="C207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>215</v>
+      </c>
+      <c r="B208" t="s">
+        <v>402</v>
+      </c>
+      <c r="C208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>216</v>
+      </c>
+      <c r="B209" t="s">
+        <v>280</v>
+      </c>
+      <c r="C209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>217</v>
+      </c>
+      <c r="B210" t="s">
+        <v>438</v>
+      </c>
+      <c r="C210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>218</v>
+      </c>
+      <c r="B211" t="s">
+        <v>435</v>
+      </c>
+      <c r="C211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>219</v>
+      </c>
+      <c r="B212" t="s">
+        <v>419</v>
+      </c>
+      <c r="C212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>220</v>
+      </c>
+      <c r="B213" t="s">
+        <v>453</v>
+      </c>
+      <c r="C213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>221</v>
+      </c>
+      <c r="B214" t="s">
+        <v>462</v>
+      </c>
+      <c r="C214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>222</v>
+      </c>
+      <c r="B215" t="s">
+        <v>298</v>
+      </c>
+      <c r="C215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>223</v>
+      </c>
+      <c r="B216" t="s">
+        <v>309</v>
+      </c>
+      <c r="C216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>224</v>
+      </c>
+      <c r="B217" t="s">
+        <v>464</v>
+      </c>
+      <c r="C217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>225</v>
+      </c>
+      <c r="B218" t="s">
+        <v>437</v>
+      </c>
+      <c r="C218" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>226</v>
+      </c>
+      <c r="B219" t="s">
+        <v>449</v>
+      </c>
+      <c r="C219" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>227</v>
+      </c>
+      <c r="B220" t="s">
+        <v>483</v>
+      </c>
+      <c r="C220" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>228</v>
+      </c>
+      <c r="B221" t="s">
+        <v>451</v>
+      </c>
+      <c r="C221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>229</v>
+      </c>
+      <c r="B222" t="s">
+        <v>307</v>
+      </c>
+      <c r="C222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>230</v>
+      </c>
+      <c r="B223" t="s">
+        <v>425</v>
+      </c>
+      <c r="C223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>231</v>
+      </c>
+      <c r="B224" t="s">
+        <v>470</v>
+      </c>
+      <c r="C224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225" t="s">
+        <v>299</v>
+      </c>
+      <c r="C225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>233</v>
+      </c>
+      <c r="B226" t="s">
+        <v>295</v>
+      </c>
+      <c r="C226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>234</v>
+      </c>
+      <c r="B227" t="s">
+        <v>477</v>
+      </c>
+      <c r="C227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>235</v>
+      </c>
+      <c r="B228" t="s">
+        <v>281</v>
+      </c>
+      <c r="C228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>236</v>
+      </c>
+      <c r="B229" t="s">
+        <v>418</v>
+      </c>
+      <c r="C229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" t="s">
+        <v>304</v>
+      </c>
+      <c r="C230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>238</v>
+      </c>
+      <c r="B231" t="s">
+        <v>312</v>
+      </c>
+      <c r="C231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>239</v>
+      </c>
+      <c r="B232" t="s">
+        <v>479</v>
+      </c>
+      <c r="C232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>240</v>
+      </c>
+      <c r="B233" t="s">
+        <v>302</v>
+      </c>
+      <c r="C233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>241</v>
+      </c>
+      <c r="B234" t="s">
+        <v>408</v>
+      </c>
+      <c r="C234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>242</v>
+      </c>
+      <c r="B235" t="s">
+        <v>461</v>
+      </c>
+      <c r="C235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>243</v>
+      </c>
+      <c r="B236" t="s">
+        <v>303</v>
+      </c>
+      <c r="C236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>244</v>
+      </c>
+      <c r="B237" t="s">
+        <v>410</v>
+      </c>
+      <c r="C237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>245</v>
+      </c>
+      <c r="B238" t="s">
+        <v>472</v>
+      </c>
+      <c r="C238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>246</v>
+      </c>
+      <c r="B239" t="s">
+        <v>450</v>
+      </c>
+      <c r="C239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>247</v>
+      </c>
+      <c r="B240" t="s">
+        <v>458</v>
+      </c>
+      <c r="C240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>248</v>
+      </c>
+      <c r="B241" t="s">
+        <v>467</v>
+      </c>
+      <c r="C241" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B122:B241">
+    <sortCondition ref="B122:B241" customList="Mon,Tue,Wed,Thu,Fri,Sat,Sun"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
